--- a/ass/df_card_behavoir_wt.xlsx
+++ b/ass/df_card_behavoir_wt.xlsx
@@ -16,52 +16,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
+    <t>加油</t>
+  </si>
+  <si>
     <t>保險</t>
   </si>
   <si>
+    <t>百貨</t>
+  </si>
+  <si>
+    <t>紅利</t>
+  </si>
+  <si>
+    <t>行動支付</t>
+  </si>
+  <si>
+    <t>電影</t>
+  </si>
+  <si>
+    <t>運動</t>
+  </si>
+  <si>
+    <t>網購</t>
+  </si>
+  <si>
     <t>國外</t>
   </si>
   <si>
-    <t>網購</t>
-  </si>
-  <si>
-    <t>加油</t>
-  </si>
-  <si>
     <t>旅遊</t>
   </si>
   <si>
-    <t>電影</t>
-  </si>
-  <si>
-    <t>紅利</t>
-  </si>
-  <si>
-    <t>運動</t>
-  </si>
-  <si>
-    <t>行動支付</t>
-  </si>
-  <si>
-    <t>百貨</t>
+    <t>Flygo</t>
+  </si>
+  <si>
+    <t>Only</t>
   </si>
   <si>
     <t>賴點</t>
   </si>
   <si>
-    <t>Only</t>
-  </si>
-  <si>
     <t>Linepay</t>
   </si>
   <si>
+    <t>dawho</t>
+  </si>
+  <si>
     <t>GOGO</t>
-  </si>
-  <si>
-    <t>Flygo</t>
-  </si>
-  <si>
-    <t>dawho</t>
   </si>
   <si>
     <t>Pi</t>
@@ -468,34 +468,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="C2">
-        <v>9.48</v>
+        <v>1.12</v>
       </c>
       <c r="D2">
-        <v>8.369999999999999</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.03</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>9.08</v>
+        <v>0.43</v>
       </c>
       <c r="G2">
-        <v>3.19</v>
+        <v>0.23</v>
       </c>
       <c r="H2">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="J2">
-        <v>9.15</v>
+        <v>3.96</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -503,34 +503,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.24</v>
+        <v>3.38</v>
       </c>
       <c r="C3">
-        <v>3.82</v>
+        <v>0.11</v>
       </c>
       <c r="D3">
-        <v>3.27</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.93</v>
+        <v>1.03</v>
       </c>
       <c r="F3">
-        <v>8.41</v>
+        <v>1.97</v>
       </c>
       <c r="G3">
-        <v>1.57</v>
+        <v>0.74</v>
       </c>
       <c r="H3">
-        <v>2.09</v>
+        <v>0.09</v>
       </c>
       <c r="I3">
-        <v>0.21</v>
+        <v>1.65</v>
       </c>
       <c r="J3">
-        <v>3.88</v>
+        <v>1.86</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -538,34 +538,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.11</v>
+        <v>2.91</v>
       </c>
       <c r="C4">
-        <v>15.65</v>
+        <v>0.62</v>
       </c>
       <c r="D4">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>8.119999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="F4">
-        <v>8.09</v>
+        <v>4.58</v>
       </c>
       <c r="G4">
-        <v>2.83</v>
+        <v>1.56</v>
       </c>
       <c r="H4">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="I4">
-        <v>0.26</v>
+        <v>4.2</v>
       </c>
       <c r="J4">
-        <v>11.66</v>
+        <v>4.7</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -573,34 +573,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3.77</v>
+        <v>3.69</v>
       </c>
       <c r="C5">
-        <v>18.06</v>
+        <v>0.52</v>
       </c>
       <c r="D5">
-        <v>21.81</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>12.48</v>
+        <v>1.04</v>
       </c>
       <c r="F5">
-        <v>17.19</v>
+        <v>5.57</v>
       </c>
       <c r="G5">
-        <v>5.91</v>
+        <v>1.38</v>
       </c>
       <c r="H5">
-        <v>5.44</v>
+        <v>0.12</v>
       </c>
       <c r="I5">
-        <v>0.4</v>
+        <v>4.16</v>
       </c>
       <c r="J5">
-        <v>15.8</v>
+        <v>7.12</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -608,34 +608,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2.08</v>
+        <v>3.3</v>
       </c>
       <c r="C6">
-        <v>9.32</v>
+        <v>0.31</v>
       </c>
       <c r="D6">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3.98</v>
+        <v>1.19</v>
       </c>
       <c r="F6">
-        <v>6.69</v>
+        <v>2.82</v>
       </c>
       <c r="G6">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="J6">
-        <v>1.1</v>
+        <v>6.24</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -643,34 +643,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.8100000000000001</v>
+        <v>4.97</v>
       </c>
       <c r="C7">
-        <v>12.58</v>
+        <v>1.28</v>
       </c>
       <c r="D7">
-        <v>6.19</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>6.24</v>
+        <v>2.15</v>
       </c>
       <c r="F7">
-        <v>8.82</v>
+        <v>6.79</v>
       </c>
       <c r="G7">
-        <v>1.86</v>
+        <v>2.3</v>
       </c>
       <c r="H7">
-        <v>2.88</v>
+        <v>0.19</v>
       </c>
       <c r="I7">
-        <v>0.42</v>
+        <v>9.33</v>
       </c>
       <c r="J7">
-        <v>5.94</v>
+        <v>7.77</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -678,34 +678,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>6.53</v>
+        <v>2.88</v>
       </c>
       <c r="C8">
-        <v>12.02</v>
+        <v>3.12</v>
       </c>
       <c r="D8">
-        <v>6.93</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>6.97</v>
+        <v>2.33</v>
       </c>
       <c r="F8">
-        <v>7.58</v>
+        <v>3.75</v>
       </c>
       <c r="G8">
-        <v>0.61</v>
+        <v>0.17</v>
       </c>
       <c r="H8">
-        <v>6.08</v>
+        <v>0.1</v>
       </c>
       <c r="I8">
-        <v>0.19</v>
+        <v>3.45</v>
       </c>
       <c r="J8">
-        <v>8.44</v>
+        <v>5.68</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -713,34 +713,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.83</v>
+        <v>2.7</v>
       </c>
       <c r="C9">
-        <v>8.289999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="D9">
-        <v>8.289999999999999</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>6.14</v>
+        <v>1.15</v>
       </c>
       <c r="F9">
-        <v>7.14</v>
+        <v>4.15</v>
       </c>
       <c r="G9">
-        <v>3.33</v>
+        <v>1.55</v>
       </c>
       <c r="H9">
-        <v>2.51</v>
+        <v>0.24</v>
       </c>
       <c r="I9">
-        <v>0.47</v>
+        <v>4.03</v>
       </c>
       <c r="J9">
-        <v>8.51</v>
+        <v>3.98</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3.57</v>
       </c>
     </row>
   </sheetData>
